--- a/ResultadoEleicoesDistritos/COIMBRA_FIGUEIRA DA FOZ.xlsx
+++ b/ResultadoEleicoesDistritos/COIMBRA_FIGUEIRA DA FOZ.xlsx
@@ -597,64 +597,64 @@
         <v>16374</v>
       </c>
       <c r="H2" t="n">
-        <v>622</v>
+        <v>578</v>
       </c>
       <c r="I2" t="n">
         <v>1662</v>
       </c>
       <c r="J2" t="n">
-        <v>6815</v>
+        <v>6741</v>
       </c>
       <c r="K2" t="n">
         <v>35</v>
       </c>
       <c r="L2" t="n">
-        <v>1768</v>
+        <v>1879</v>
       </c>
       <c r="M2" t="n">
-        <v>116</v>
+        <v>128</v>
       </c>
       <c r="N2" t="n">
-        <v>1206</v>
+        <v>1178</v>
       </c>
       <c r="O2" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="P2" t="n">
-        <v>22</v>
+        <v>38</v>
       </c>
       <c r="Q2" t="n">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="R2" t="n">
-        <v>81</v>
+        <v>97</v>
       </c>
       <c r="S2" t="n">
-        <v>687</v>
+        <v>751</v>
       </c>
       <c r="T2" t="n">
-        <v>1238</v>
+        <v>1148</v>
       </c>
       <c r="U2" t="n">
-        <v>96</v>
+        <v>114</v>
       </c>
       <c r="V2" t="n">
-        <v>10490</v>
+        <v>10618</v>
       </c>
       <c r="W2" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="X2" t="n">
-        <v>10393</v>
+        <v>10264</v>
       </c>
       <c r="Y2" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="Z2" t="n">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="AA2" t="n">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
   </sheetData>
